--- a/LAST10GAMESDATA.xlsx
+++ b/LAST10GAMESDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\Math245\Math-245-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A8DF17-D847-432C-B085-5144CEDA233F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4672B5AB-0219-440E-BA82-0241F62290D9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{233CFB66-FA8E-4155-BCA2-93B7B02F2F54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>TEAM</t>
   </si>
@@ -160,12 +160,6 @@
   </si>
   <si>
     <t>Conf</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>East</t>
   </si>
   <si>
     <t>ThreePM</t>
@@ -608,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB519D7-2051-4148-AAB4-44C9E03C2CD3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" activeCellId="1" sqref="C1:C30 C31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -667,7 +661,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -716,12 +710,12 @@
       <c r="O2">
         <v>16</v>
       </c>
-      <c r="P2" t="s">
-        <v>45</v>
+      <c r="P2">
+        <v>0</v>
       </c>
       <c r="Q2">
-        <f>C2-(D2+E2)</f>
-        <v>16.699999999999996</v>
+        <f>C2-(D2)</f>
+        <v>31.199999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -770,12 +764,12 @@
       <c r="O3">
         <v>4</v>
       </c>
-      <c r="P3" t="s">
-        <v>46</v>
+      <c r="P3">
+        <v>1</v>
       </c>
       <c r="Q3">
-        <f>C3-(D3+E3)</f>
-        <v>14.3</v>
+        <f>C3-(D3)</f>
+        <v>30.7</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -824,12 +818,12 @@
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4" t="s">
-        <v>45</v>
+      <c r="P4">
+        <v>0</v>
       </c>
       <c r="Q4">
-        <f>C4-(D4+E4)</f>
-        <v>9</v>
+        <f>C4-(D4)</f>
+        <v>30.5</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -878,12 +872,12 @@
       <c r="O5">
         <v>4</v>
       </c>
-      <c r="P5" t="s">
-        <v>45</v>
+      <c r="P5">
+        <v>0</v>
       </c>
       <c r="Q5">
-        <f>C5-(D5+E5)</f>
-        <v>14.200000000000003</v>
+        <f>C5-(D5)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -932,12 +926,12 @@
       <c r="O6">
         <v>2</v>
       </c>
-      <c r="P6" t="s">
-        <v>46</v>
+      <c r="P6">
+        <v>1</v>
       </c>
       <c r="Q6">
-        <f>C6-(D6+E6)</f>
-        <v>14.700000000000003</v>
+        <f>C6-(D6)</f>
+        <v>29.8</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -986,12 +980,12 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
-        <v>45</v>
+      <c r="P7">
+        <v>0</v>
       </c>
       <c r="Q7">
-        <f>C7-(D7+E7)</f>
-        <v>9.6999999999999993</v>
+        <f>C7-(D7)</f>
+        <v>27.099999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1040,12 +1034,12 @@
       <c r="O8">
         <v>9</v>
       </c>
-      <c r="P8" t="s">
-        <v>46</v>
+      <c r="P8">
+        <v>1</v>
       </c>
       <c r="Q8">
-        <f>C8-(D8+E8)</f>
-        <v>6.2000000000000028</v>
+        <f>C8-(D8)</f>
+        <v>27.2</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1094,12 +1088,12 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
-        <v>46</v>
+      <c r="P9">
+        <v>1</v>
       </c>
       <c r="Q9">
-        <f>C9-(D9+E9)</f>
-        <v>11.599999999999994</v>
+        <f>C9-(D9)</f>
+        <v>29.199999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -1148,12 +1142,12 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10" t="s">
-        <v>45</v>
+      <c r="P10">
+        <v>0</v>
       </c>
       <c r="Q10">
-        <f>C10-(D10+E10)</f>
-        <v>12.399999999999999</v>
+        <f>C10-(D10)</f>
+        <v>29.799999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1202,12 +1196,12 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
-        <v>46</v>
+      <c r="P11">
+        <v>1</v>
       </c>
       <c r="Q11">
-        <f>C11-(D11+E11)</f>
-        <v>10.400000000000002</v>
+        <f>C11-(D11)</f>
+        <v>28.400000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1256,12 +1250,12 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
-        <v>46</v>
+      <c r="P12">
+        <v>1</v>
       </c>
       <c r="Q12">
-        <f>C12-(D12+E12)</f>
-        <v>13.399999999999999</v>
+        <f>C12-(D12)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1310,12 +1304,12 @@
       <c r="O13">
         <v>6</v>
       </c>
-      <c r="P13" t="s">
-        <v>45</v>
+      <c r="P13">
+        <v>0</v>
       </c>
       <c r="Q13">
-        <f>C13-(D13+E13)</f>
-        <v>5.6000000000000014</v>
+        <f>C13-(D13)</f>
+        <v>26.9</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -1364,12 +1358,12 @@
       <c r="O14">
         <v>7</v>
       </c>
-      <c r="P14" t="s">
-        <v>45</v>
+      <c r="P14">
+        <v>0</v>
       </c>
       <c r="Q14">
-        <f>C14-(D14+E14)</f>
-        <v>16.199999999999996</v>
+        <f>C14-(D14)</f>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -1418,12 +1412,12 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" t="s">
-        <v>45</v>
+      <c r="P15">
+        <v>0</v>
       </c>
       <c r="Q15">
-        <f>C15-(D15+E15)</f>
-        <v>18.3</v>
+        <f>C15-(D15)</f>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1472,12 +1466,12 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
-        <v>46</v>
+      <c r="P16">
+        <v>1</v>
       </c>
       <c r="Q16">
-        <f>C16-(D16+E16)</f>
-        <v>9.5</v>
+        <f>C16-(D16)</f>
+        <v>28.799999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1526,12 +1520,12 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
-        <v>45</v>
+      <c r="P17">
+        <v>0</v>
       </c>
       <c r="Q17">
-        <f>C17-(D17+E17)</f>
-        <v>16</v>
+        <f>C17-(D17)</f>
+        <v>32.1</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1580,12 +1574,12 @@
       <c r="O18">
         <v>2</v>
       </c>
-      <c r="P18" t="s">
-        <v>46</v>
+      <c r="P18">
+        <v>1</v>
       </c>
       <c r="Q18">
-        <f>C18-(D18+E18)</f>
-        <v>13.200000000000003</v>
+        <f>C18-(D18)</f>
+        <v>27.000000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -1634,12 +1628,12 @@
       <c r="O19">
         <v>8</v>
       </c>
-      <c r="P19" t="s">
-        <v>45</v>
+      <c r="P19">
+        <v>0</v>
       </c>
       <c r="Q19">
-        <f>C19-(D19+E19)</f>
-        <v>14.700000000000003</v>
+        <f>C19-(D19)</f>
+        <v>28.500000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1688,12 +1682,12 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
-        <v>45</v>
+      <c r="P20">
+        <v>0</v>
       </c>
       <c r="Q20">
-        <f>C20-(D20+E20)</f>
-        <v>13.100000000000001</v>
+        <f>C20-(D20)</f>
+        <v>30.5</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1742,12 +1736,12 @@
       <c r="O21">
         <v>13</v>
       </c>
-      <c r="P21" t="s">
-        <v>46</v>
+      <c r="P21">
+        <v>1</v>
       </c>
       <c r="Q21">
-        <f>C21-(D21+E21)</f>
-        <v>13.5</v>
+        <f>C21-(D21)</f>
+        <v>28.199999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1796,12 +1790,12 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
-        <v>46</v>
+      <c r="P22">
+        <v>1</v>
       </c>
       <c r="Q22">
-        <f>C22-(D22+E22)</f>
-        <v>17.499999999999996</v>
+        <f>C22-(D22)</f>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1850,12 +1844,12 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>46</v>
+      <c r="P23">
+        <v>1</v>
       </c>
       <c r="Q23">
-        <f>C23-(D23+E23)</f>
-        <v>6.4000000000000021</v>
+        <f>C23-(D23)</f>
+        <v>27.000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -1904,12 +1898,12 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24" t="s">
-        <v>45</v>
+      <c r="P24">
+        <v>0</v>
       </c>
       <c r="Q24">
-        <f>C24-(D24+E24)</f>
-        <v>16.899999999999995</v>
+        <f>C24-(D24)</f>
+        <v>33.5</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -1958,12 +1952,12 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25" t="s">
-        <v>46</v>
+      <c r="P25">
+        <v>1</v>
       </c>
       <c r="Q25">
-        <f>C25-(D25+E25)</f>
-        <v>18.900000000000002</v>
+        <f>C25-(D25)</f>
+        <v>31.300000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
@@ -2012,12 +2006,12 @@
       <c r="O26">
         <v>0</v>
       </c>
-      <c r="P26" t="s">
-        <v>45</v>
+      <c r="P26">
+        <v>0</v>
       </c>
       <c r="Q26">
-        <f>C26-(D26+E26)</f>
-        <v>10.799999999999997</v>
+        <f>C26-(D26)</f>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -2066,12 +2060,12 @@
       <c r="O27">
         <v>0</v>
       </c>
-      <c r="P27" t="s">
-        <v>46</v>
+      <c r="P27">
+        <v>1</v>
       </c>
       <c r="Q27">
-        <f>C27-(D27+E27)</f>
-        <v>12.600000000000001</v>
+        <f>C27-(D27)</f>
+        <v>30.200000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -2120,12 +2114,12 @@
       <c r="O28">
         <v>2</v>
       </c>
-      <c r="P28" t="s">
-        <v>45</v>
+      <c r="P28">
+        <v>0</v>
       </c>
       <c r="Q28">
-        <f>C28-(D28+E28)</f>
-        <v>12.299999999999997</v>
+        <f>C28-(D28)</f>
+        <v>26.599999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
@@ -2174,12 +2168,12 @@
       <c r="O29">
         <v>0</v>
       </c>
-      <c r="P29" t="s">
-        <v>45</v>
+      <c r="P29">
+        <v>0</v>
       </c>
       <c r="Q29">
-        <f>C29-(D29+E29)</f>
-        <v>13.600000000000001</v>
+        <f>C29-(D29)</f>
+        <v>35.300000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
@@ -2228,12 +2222,12 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="P30" t="s">
-        <v>45</v>
+      <c r="P30">
+        <v>0</v>
       </c>
       <c r="Q30">
-        <f>C30-(D30+E30)</f>
-        <v>9.6000000000000014</v>
+        <f>C30-(D30)</f>
+        <v>24.3</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2282,12 +2276,12 @@
       <c r="O31">
         <v>0</v>
       </c>
-      <c r="P31" t="s">
-        <v>46</v>
+      <c r="P31">
+        <v>1</v>
       </c>
       <c r="Q31">
-        <f>C31-(D31+E31)</f>
-        <v>9.3999999999999986</v>
+        <f>C31-(D31)</f>
+        <v>26.6</v>
       </c>
     </row>
   </sheetData>
